--- a/supplementary/supplementary_tables/Supplementary_Table_material_human_tables.xlsx
+++ b/supplementary/supplementary_tables/Supplementary_Table_material_human_tables.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sclohise/Documents/GitHub/maic_bpd_paper/supplementary/supplementary_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3670A6-0FAD-5E45-9B55-7EB182FF6ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B6E392-5CA5-C946-9741-A3F5913722EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1220" yWindow="500" windowWidth="28040" windowHeight="17440" activeTab="5" xr2:uid="{40DFD0E9-0327-6440-84D7-6728366FF656}"/>
   </bookViews>
   <sheets>
-    <sheet name="ST5_human_gsea_go" sheetId="1" r:id="rId1"/>
-    <sheet name="ST6_human_gsea_reactome" sheetId="2" r:id="rId2"/>
-    <sheet name="ST7_human_gsea_kegg" sheetId="3" r:id="rId3"/>
-    <sheet name="ST8_human_ora_go" sheetId="4" r:id="rId4"/>
-    <sheet name="ST9_human_ora_reactome" sheetId="5" r:id="rId5"/>
-    <sheet name="ST10_human_ora_kegg" sheetId="6" r:id="rId6"/>
+    <sheet name="human_gsea_go" sheetId="1" r:id="rId1"/>
+    <sheet name="human_gsea_reactome" sheetId="2" r:id="rId2"/>
+    <sheet name="human_gsea_kegg" sheetId="3" r:id="rId3"/>
+    <sheet name="human_ora_go" sheetId="4" r:id="rId4"/>
+    <sheet name="human_ora_reactome" sheetId="5" r:id="rId5"/>
+    <sheet name="human_ora_kegg" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -72949,14 +72949,16 @@
   <dimension ref="A1:M76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="50.1640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="29" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -83160,7 +83162,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
